--- a/chuongtrinh/HOCONLINE/Content/file/41_20146.xlsx
+++ b/chuongtrinh/HOCONLINE/Content/file/41_20146.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="29">
   <si>
     <t>Họ tên</t>
   </si>
@@ -69,6 +69,18 @@
   </si>
   <si>
     <t>vuong@gmail.com</t>
+  </si>
+  <si>
+    <t>Trần Đức  Vũ</t>
+  </si>
+  <si>
+    <t>vu@gmail.com</t>
+  </si>
+  <si>
+    <t>lê Thị tường  VI</t>
+  </si>
+  <si>
+    <t>vi@gmail.com</t>
   </si>
   <si>
     <t>Spire.XLS for .NET</t>
@@ -612,7 +624,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1"/>
   </sheetViews>
@@ -718,6 +730,46 @@
         <v>10</v>
       </c>
       <c r="F5" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="12.75">
+      <c r="A6" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="12.75">
+      <c r="A7" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="4" t="s">
         <v>8</v>
       </c>
     </row>
@@ -766,42 +818,42 @@
   <sheetData>
     <row r="1" ht="12.75">
       <c r="B1" s="8" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" ht="12.75">
       <c r="B2" s="8" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" ht="12.75">
       <c r="B4" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" ht="12.75">
       <c r="B5" s="9" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" ht="12.75">
       <c r="B7" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" ht="12.75">
       <c r="B8" s="9" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" ht="12.75">
       <c r="B10" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" ht="12.75">
       <c r="B11" s="9" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
